--- a/management.xlsx
+++ b/management.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="125">
   <si>
     <t>YEAR</t>
   </si>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t>JC130</t>
-  </si>
-  <si>
-    <t>JC131</t>
   </si>
 </sst>
 </file>
@@ -880,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>12500</v>
+        <v>32500</v>
       </c>
     </row>
   </sheetData>
@@ -1995,7 +1992,7 @@
         <v>10000</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
         <v>121</v>
@@ -2031,7 +2028,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2091,16 +2088,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2112,32 +2109,6 @@
         <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" t="s">
         <v>34</v>
       </c>
     </row>
